--- a/ModelEvaluation.xlsx
+++ b/ModelEvaluation.xlsx
@@ -3,13 +3,19 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2040" yWindow="1725" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GPU VGG16" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="VGG16" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="VGG161" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="VGG168" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="VGG169" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="VGG1610" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="VGG16" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="VGG1611" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="VGG1612" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="VGG1613" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="VGG1614" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="VGG1615" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -395,7 +401,7 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -405,13 +411,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,32 +428,73 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Fold</t>
+          <t>Epoch</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Batch</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Runtime(s)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>Epoch</t>
         </is>
       </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Batch</t>
+        </is>
+      </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Batch</t>
+          <t>Loss</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Loss</t>
+          <t>Accuracy</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Accuracy</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Runtime (s)</t>
+          <t>Runtime(s)</t>
         </is>
       </c>
     </row>
@@ -459,30 +506,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>209.9968773771374</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.15625</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>9.92896842956543</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="F3" t="n">
-        <v>20.12812066078186</v>
+        <v>3.567210912704468</v>
       </c>
     </row>
   </sheetData>
@@ -514,7 +544,207 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Batch</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Runtime(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>154.0025735713953</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.676467418670654</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>415.3254026834906</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.978885412216187</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>585.5776683526121</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10.25480318069458</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>647.2133771408445</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13.60868835449219</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>711.9632865466743</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E6" t="n">
+        <v>16.86650896072388</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>775.7681245219785</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="E7" t="n">
+        <v>20.13257026672363</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>851.6361244280254</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="E8" t="n">
+        <v>23.4553165435791</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>930.350167647794</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E9" t="n">
+        <v>26.73171019554138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,16 +787,217 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>90.325727971798</v>
+        <v>394.6739739775652</v>
       </c>
       <c r="D2" t="n">
-        <v>0.34375</v>
+        <v>0.18</v>
       </c>
       <c r="E2" t="n">
-        <v>222.0063526630402</v>
+        <v>1.573900461196899</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>618.3650915344909</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.842362642288208</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>821.7107354474656</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.076127052307129</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1024.311885072212</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5.358736276626587</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1230.538275369579</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.612671613693237</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1473.653597915407</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7.891231775283813</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Batch</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Runtime(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1144.916465612265</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9.716732025146484</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1351.713221612794</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19.23146963119507</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/ModelEvaluation.xlsx
+++ b/ModelEvaluation.xlsx
@@ -16,6 +16,14 @@
     <sheet name="VGG1613" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="VGG1614" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="VGG1615" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="VGG1616" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="VGG1617" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="VGG1618" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="VGG1619" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="VGG1620" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="VGG1621" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="VGG1622" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="VGG1623" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -457,13 +465,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,29 +524,12 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>209.9968773771374</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.15625</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3.567210912704468</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -538,15 +547,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -579,148 +588,12 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>154.0025735713953</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1875</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3.676467418670654</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>415.3254026834906</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>6.978885412216187</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>585.5776683526121</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>10.25480318069458</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>647.2133771408445</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.40625</v>
-      </c>
-      <c r="E5" t="n">
-        <v>13.60868835449219</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>711.9632865466743</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="E6" t="n">
-        <v>16.86650896072388</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>775.7681245219785</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.03125</v>
-      </c>
-      <c r="E7" t="n">
-        <v>20.13257026672363</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>851.6361244280254</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.03125</v>
-      </c>
-      <c r="E8" t="n">
-        <v>23.4553165435791</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>930.350167647794</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="E9" t="n">
-        <v>26.73171019554138</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -738,13 +611,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E7"/>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -779,114 +652,12 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>394.6739739775652</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.573900461196899</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>618.3650915344909</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.842362642288208</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>821.7107354474656</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4.076127052307129</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1024.311885072212</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5.358736276626587</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1230.538275369579</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="E6" t="n">
-        <v>6.612671613693237</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1473.653597915407</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E7" t="n">
-        <v>7.891231775283813</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -904,13 +675,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -945,6 +716,52 @@
         </is>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Batch</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Runtime(s)</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
@@ -953,6 +770,453 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
+        <v>209.9968773771374</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.15625</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.567210912704468</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Batch</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Runtime(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>154.0025735713953</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.676467418670654</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>415.3254026834906</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.978885412216187</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>585.5776683526121</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10.25480318069458</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>647.2133771408445</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13.60868835449219</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>711.9632865466743</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E6" t="n">
+        <v>16.86650896072388</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>775.7681245219785</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="E7" t="n">
+        <v>20.13257026672363</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>851.6361244280254</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="E8" t="n">
+        <v>23.4553165435791</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>930.350167647794</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E9" t="n">
+        <v>26.73171019554138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Batch</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Runtime(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>394.6739739775652</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.573900461196899</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>618.3650915344909</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2.842362642288208</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>821.7107354474656</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.076127052307129</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1024.311885072212</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5.358736276626587</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1230.538275369579</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.612671613693237</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1473.653597915407</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7.891231775283813</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Batch</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Runtime(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
         <v>1144.916465612265</v>
       </c>
       <c r="D2" t="n">
